--- a/pred_ohlcv/54_21/2019-10-19 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 PPT ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>4010.48634454</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3998.60262487</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1239.01812487</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-918.7090751300002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-918.7090751300002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2412.69043908</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-8476.185875130001</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-8457.885875130001</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-8902.330275130002</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-6784.585175130002</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4548.575475130001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4550.925275130001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4680.925275130001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4680.925275130001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3379.925275130001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3378.925275130001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4840.415875130001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4840.415875130001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4839.415875130001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4855.084075130001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-4860.084075130001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-7348.663075130002</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-7345.663075130002</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-7345.663075130002</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-7346.663075130002</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-7206.663075130002</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 PPT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4006.14960985</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3998.60262487</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2138.85602487</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1239.01812487</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-918.7090751300002</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-918.7090751300002</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2412.69043908</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-8902.330275130002</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4548.575475130001</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4550.925275130001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4680.925275130001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4680.925275130001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3379.925275130001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3378.925275130001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4840.415875130001</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4840.415875130001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4839.415875130001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4855.084075130001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-4860.084075130001</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-7348.663075130002</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-7345.663075130002</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-7345.663075130002</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-7346.663075130002</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-7206.663075130002</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
